--- a/results/many_different/quicksort.xlsx
+++ b/results/many_different/quicksort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_different/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{06F91C97-4F4D-4A53-ADD9-6B5F7EE7A20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE10DAA6-74B0-4014-A6D9-1DECA60B6CF6}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{06F91C97-4F4D-4A53-ADD9-6B5F7EE7A20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F82A577-1D04-494B-935C-FDDA3195141E}"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="3615" windowWidth="33270" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21435" yWindow="2385" windowWidth="27360" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quicksort" sheetId="1" r:id="rId1"/>
@@ -593,19 +593,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -631,19 +625,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -674,19 +662,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -785,19 +767,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -896,19 +872,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1018,10 +988,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1049,10 +1020,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1072,9 +1044,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1088,8 +1060,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1118,9 +1091,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1135,10 +1108,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1166,10 +1140,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1199,8 +1174,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1240,8 +1216,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1265,28 +1242,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1329,19 +1295,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1367,19 +1327,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1410,19 +1364,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1485,19 +1433,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1571,10 +1513,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1584,13 +1527,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Größe der</a:t>
+                  <a:t>Größe der Eingabe in log2(n)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> Eingabe in log2(n)</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1607,10 +1545,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1629,9 +1568,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1645,8 +1584,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1675,9 +1615,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1692,10 +1632,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1723,10 +1664,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1756,8 +1698,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1797,8 +1740,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1822,28 +1766,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1946,33 +1879,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1980,34 +1915,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2016,8 +1943,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2036,6 +1964,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2044,35 +1980,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2084,29 +2030,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2124,18 +2072,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2145,20 +2096,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2172,14 +2123,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2193,8 +2144,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2208,6 +2160,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2219,9 +2177,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2236,13 +2194,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2254,14 +2213,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2273,13 +2232,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2288,13 +2248,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2302,7 +2263,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2315,21 +2276,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2337,14 +2288,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2356,19 +2307,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2384,6 +2328,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2392,8 +2337,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2403,7 +2349,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2411,9 +2357,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2424,8 +2370,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2437,38 +2384,46 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2476,34 +2431,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2512,8 +2459,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2532,6 +2480,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2540,35 +2496,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2580,29 +2546,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2620,18 +2588,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2641,20 +2612,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2668,14 +2639,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2689,8 +2660,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2704,6 +2676,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2715,9 +2693,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2732,13 +2710,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2750,14 +2729,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2769,13 +2748,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2784,13 +2764,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2798,7 +2779,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2811,21 +2792,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2833,14 +2804,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2852,19 +2823,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2880,6 +2844,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2888,8 +2853,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2899,7 +2865,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2907,9 +2873,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2920,8 +2886,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2933,6 +2900,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3318,7 +3291,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="A4" activeCellId="1" sqref="A1:J1 A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/many_different/quicksort.xlsx
+++ b/results/many_different/quicksort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_different/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{06F91C97-4F4D-4A53-ADD9-6B5F7EE7A20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F82A577-1D04-494B-935C-FDDA3195141E}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{06F91C97-4F4D-4A53-ADD9-6B5F7EE7A20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA493A9F-972A-4D4B-88E2-9B41D396F4B6}"/>
   <bookViews>
-    <workbookView xWindow="21435" yWindow="2385" windowWidth="27360" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="1080" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quicksort" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>BEST_CASE</t>
   </si>
@@ -28,7 +28,10 @@
     <t>AVERAGE_CASE</t>
   </si>
   <si>
-    <t>WORST_CASE</t>
+    <t>WORST_CASE_SORTED</t>
+  </si>
+  <si>
+    <t>WORST_CASE_ALL_SAME</t>
   </si>
 </sst>
 </file>
@@ -607,708 +610,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Quicksort</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>quicksort!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BEST_CASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>quicksort!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>quicksort!$B$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2766</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3233</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6266</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26833</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56266</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120733</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>254366</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>567900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B286-4A94-9392-A1372CD37657}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>quicksort!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AVERAGE_CASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>quicksort!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>quicksort!$B$3:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>7950</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16070</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34690</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>74790</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>159780</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>343890</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>738190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1544560</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3253260</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B286-4A94-9392-A1372CD37657}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>quicksort!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>WORST_CASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>quicksort!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>quicksort!$B$4:$J$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>14400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>56633</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>198033</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>769033</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3035100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12017133</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47932266</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>191677566</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>765867766</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B286-4A94-9392-A1372CD37657}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2066985135"/>
-        <c:axId val="2066988463"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2066985135"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Größe der Eingabe in log2(n)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2066988463"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2066988463"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in ns</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2066985135"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
               <a:t>Quicksort ohne Worst-Case</a:t>
             </a:r>
           </a:p>
@@ -1798,6 +1099,813 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Quicksort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>quicksort!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BEST_CASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>quicksort!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>quicksort!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56266</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>254366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>567900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77DB-4B3C-9132-59DC4302D4EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>quicksort!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVERAGE_CASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>quicksort!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>quicksort!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16070</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34690</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74790</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>343890</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>738190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1544560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3253260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77DB-4B3C-9132-59DC4302D4EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>quicksort!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WORST_CASE_SORTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>quicksort!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>quicksort!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>769033</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3035100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12017133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47932266</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191677566</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>765867766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77DB-4B3C-9132-59DC4302D4EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>quicksort!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WORST_CASE_ALL_SAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>quicksort!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>quicksort!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>382733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1506200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6005600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24012800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95685100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>383639533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-77DB-4B3C-9132-59DC4302D4EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1045831039"/>
+        <c:axId val="1045826463"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1045831039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Größe der Eingabe in log2(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1045826463"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1045826463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zeit in ns</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1045831039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2914,23 +3022,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFED11F8-1030-67D4-C1A8-970CC850F300}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44B2721-16D5-CA0C-8E52-C810C78871DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,23 +3058,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
+        <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44B2721-16D5-CA0C-8E52-C810C78871DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE73584D-E613-A540-029F-34CF2BD3F757}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3288,13 +3396,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" activeCellId="1" sqref="A1:J1 A4:J4"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1">
@@ -3419,6 +3535,38 @@
       </c>
       <c r="J4">
         <v>765867766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7900</v>
+      </c>
+      <c r="C5">
+        <v>27366</v>
+      </c>
+      <c r="D5">
+        <v>99300</v>
+      </c>
+      <c r="E5">
+        <v>382733</v>
+      </c>
+      <c r="F5">
+        <v>1506200</v>
+      </c>
+      <c r="G5">
+        <v>6005600</v>
+      </c>
+      <c r="H5">
+        <v>24012800</v>
+      </c>
+      <c r="I5">
+        <v>95685100</v>
+      </c>
+      <c r="J5">
+        <v>383639533</v>
       </c>
     </row>
   </sheetData>
